--- a/biology/Zoologie/Colias_thula/Colias_thula.xlsx
+++ b/biology/Zoologie/Colias_thula/Colias_thula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias thula est une espèce d'insectes lépidoptères de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,13 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias thula a été nommé par Hovanitz en 1955.
-Synonyme : Colias nastes thula ; Colias tyche thula [1].
-Colias thula était avant considéré comme une sous-espèce de Colias tyche, Colias tyche thula[2].
-Noms vernaculaires
-Colias thula se nomme Thula Sulphur en anglais[1].
+Synonyme : Colias nastes thula ; Colias tyche thula .
+Colias thula était avant considéré comme une sous-espèce de Colias tyche, Colias tyche thula.
 </t>
         </is>
       </c>
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias thula est un papillon de taille moyenne de couleur blanc verdi plus marquée aux postérieures avec une bordure marron clair plus ou moins large et une frange rose.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias thula se nomme Thula Sulphur en anglais.
 </t>
         </is>
       </c>
@@ -574,15 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias thula vole de juin à août, en une seule génération.
-Plantes hôtes
-La plante hôte de sa chenille est Lupinus arcticus[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias thula est un papillon de taille moyenne de couleur blanc verdi plus marquée aux postérieures avec une bordure marron clair plus ou moins large et une frange rose.
 </t>
         </is>
       </c>
@@ -608,16 +625,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias thula vole de juin à août, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_thula</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_thula</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Lupinus arcticus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_thula</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_thula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias thula est présent dans le nord-ouest de l'Amérique du Nord en Alaska, au Yukon et dans les Territoires du Nord-Ouest [1].
-Biotope
-Il réside dans la toundra.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias thula est présent dans le nord-ouest de l'Amérique du Nord en Alaska, au Yukon et dans les Territoires du Nord-Ouest .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_thula</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_thula</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la toundra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_thula</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_thula</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
